--- a/CSV/TypesCSV.xlsx
+++ b/CSV/TypesCSV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\CPSC 408 (Database Management)\FinalProject\PokemonDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\CPSC 408 (Database Management)\FinalProject\PokemonDB\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D9736F-07DD-4D7C-9C8C-4FB4D52BBBF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36E93D-A6C6-4129-8FA6-89257BABC501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F5F923A8-B857-4239-B1BA-184C86F3C494}"/>
   </bookViews>
@@ -31,16 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Advantage</t>
-  </si>
-  <si>
-    <t>Disadvantage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>NORMAL</t>
   </si>
@@ -544,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66730824-285D-4681-AD1C-FD7FBD4E79A6}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,15 +552,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -713,29 +704,29 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
@@ -750,17 +741,6 @@
       </c>
       <c r="C18" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
